--- a/VersionRecords/Version 5.2.7 170117/版本Bug和特性计划及评审表v5.2.7_马丁组.xlsx
+++ b/VersionRecords/Version 5.2.7 170117/版本Bug和特性计划及评审表v5.2.7_马丁组.xlsx
@@ -276,9 +276,9 @@
     <t>systemconfig.properties</t>
   </si>
   <si>
-    <t>filter.sysconfig.ca.mid=e2cf247a7cb048dd8b5f69313f6d78da
-filter.sysconfig.ca.primaryKey=MIICdwIBADANBgkqhkiG9w0BAQEFAASCAmEwggJdAgEAAoGBAIgxYCvA4/Zi1gHdQI7tyfKSQc+3Yt+oyrwAG4+fdvd5PbNmIq4SbtM7NP71fijOJ5dBHvcMUFCzqivv8zzL5ncMv60++El2/lL1+jzNH02sDgTnlMaJPOOxIrPaf+lSE8+ZjxlhR6KnaVn6tnTjiUFIHX0X6uGu0MGuxypVYQYrAgMBAAECgYBcDLtKd0HceqrYcbk7oV5YFCBlCzbJomT8MjpulUIsO4bHZSXVb2H2ZNMJ69UMMWIy6fHK2kjCctx2e+Rz2AB4w4vkIsxtpI9zJ96vBeKv6KEDbbPNiVeTNPXEGKeOYy9grC84RfFg4FNLsSclcBr4zA6aZC9zyqeW45qYOlsxoQJBAMYlZ4+N+Twp+8NYz++RtTXix3sK/JbvgUfAHejw3RQ2IcKS/5fj/frV0xs8YZj9ZPQUPI67xkYC5K65kfs/xXECQQCv9TmYr/J+ROWPiqqdirIKH3MWcNCFzG43SImYpmWAL7Cmr8lUiuvcckKk5zpktRvp1jSesirbcVrCcoQ9a8dbAkEAjUpmykqmimw1hlpyC5aO7NnE/MwcyVQHj65CpbP7MUpYUHKZpymAFbkbS7SGs50cu58if3UOMSYnAyB4I/yZQQJBAJvMycPtvwyZGp6/zJSUU1LtR+1N1QUz3z9qJhOY+nTHRWZCbkVCgNeAAIydBTJYvq+NcKg34ATQWOmllnwAK9MCQH2Fl7RInqexlE7WfByAScCbyzXXg8V1HyGclTGFXeL6/nFfOvLgxiMPjbO0HN7H84ZhVca3QiC52zx1CQAo5qY=
-filter.sysconfig.ca.host=https://www.ssqsign.com</t>
+    <t>sysconfig.ca.mid=e2cf247a7cb048dd8b5f69313f6d78da
+sysconfig.ca.primaryKey=MIICdwIBADANBgkqhkiG9w0BAQEFAASCAmEwggJdAgEAAoGBAIgxYCvA4/Zi1gHdQI7tyfKSQc+3Yt+oyrwAG4+fdvd5PbNmIq4SbtM7NP71fijOJ5dBHvcMUFCzqivv8zzL5ncMv60++El2/lL1+jzNH02sDgTnlMaJPOOxIrPaf+lSE8+ZjxlhR6KnaVn6tnTjiUFIHX0X6uGu0MGuxypVYQYrAgMBAAECgYBcDLtKd0HceqrYcbk7oV5YFCBlCzbJomT8MjpulUIsO4bHZSXVb2H2ZNMJ69UMMWIy6fHK2kjCctx2e+Rz2AB4w4vkIsxtpI9zJ96vBeKv6KEDbbPNiVeTNPXEGKeOYy9grC84RfFg4FNLsSclcBr4zA6aZC9zyqeW45qYOlsxoQJBAMYlZ4+N+Twp+8NYz++RtTXix3sK/JbvgUfAHejw3RQ2IcKS/5fj/frV0xs8YZj9ZPQUPI67xkYC5K65kfs/xXECQQCv9TmYr/J+ROWPiqqdirIKH3MWcNCFzG43SImYpmWAL7Cmr8lUiuvcckKk5zpktRvp1jSesirbcVrCcoQ9a8dbAkEAjUpmykqmimw1hlpyC5aO7NnE/MwcyVQHj65CpbP7MUpYUHKZpymAFbkbS7SGs50cu58if3UOMSYnAyB4I/yZQQJBAJvMycPtvwyZGp6/zJSUU1LtR+1N1QUz3z9qJhOY+nTHRWZCbkVCgNeAAIydBTJYvq+NcKg34ATQWOmllnwAK9MCQH2Fl7RInqexlE7WfByAScCbyzXXg8V1HyGclTGFXeL6/nFfOvLgxiMPjbO0HN7H84ZhVca3QiC52zx1CQAo5qY=
+sysconfig.ca.host=https://www.ssqsign.com</t>
   </si>
   <si>
     <t>ca电子合同认证</t>
@@ -293,9 +293,9 @@
     <t>田东兴</t>
   </si>
   <si>
-    <t>filter.sysconfig.zmxy.gatewayUrl=https://zmopenapi.zmxy.com.cn/openapi.do
-filter.sysconfig.zmxy.appId=1001637
-filter.sysconfig.zmxy.privateKey=MIICdgIBADANBgkqhkiG9w0BAQEFAASCAmAwggJcAgEAAoGBAIjfNWUXqCNtlaBFpv4KrBTVQb4btX9Gi+UPuz7AMvwbSXmtIxV2awkz4Rg0Q3PtTkuAUpuW958u3uNxypcsCJD3o4qphgqSMVpe33bJ1bZaeL/h8WT9KNBiIxGsYQco44JbJkjrHTAI3Wt+RNhHyn+nKI9wCaeYPCY7ZipVpmL3AgMBAAECgYBn/BxWx1hIQjMQ5pnuGzGNSk9+HRMQtQoHZqI9FEwn2JtDw9QJtEOxZCa4+svcQQfguIcKCfHqj/NqHMNrglqmmJhKrut+ilUt8rqJCmvRSh8AdG7ZnqzxQYdTrrEEKgO932WqPOI98X2H+2cPzLfIOgxN7FhCDg+lVi4CBdfJ8QJBANosNf2b4f50AgAkstAKX1Hqqsb+k5L5reoF9e6eQufPXIpSrbME3cETyRMMLKX+YfhHpv66fpfg0X4JiHZIpdsCQQCgmmPNWs2nbvHY3Eo3xuYs/KJRIltgYaAd9+CCjpCTbU21afqyGkK7zibHfLADh+m5GOkOZ5IFn5Alhg1NQNgVAkBTX/PeEDVEPWcKUPv4nw4gSvKqi10wHLSGq3J5lwdweQEfZ0s0D5cDEyGTYuKpKNadwBwkWnbIacUFSnVY5phjAkAt4Ix73+F5X77kROFKl52u4if350mU+a5EgUd35AO2qXWWSgTcFZZUkaoQODULfSqtvkjs3Xcf9hm2LlnkZI6VAkEAl8+0+a6Rjz119mxJXy9JWKTbWirhja+ijyndLVEAmxTYjWTuNKbRdTYe59ekRYhmMWkiKzggP+PKjXHCHV6eRQ==
+    <t>sysconfig.zmxy.gatewayUrl=https://zmopenapi.zmxy.com.cn/openapi.do
+sysconfig.zmxy.appId=1001637
+sysconfig.zmxy.privateKey=MIICdgIBADANBgkqhkiG9w0BAQEFAASCAmAwggJcAgEAAoGBAIjfNWUXqCNtlaBFpv4KrBTVQb4btX9Gi+UPuz7AMvwbSXmtIxV2awkz4Rg0Q3PtTkuAUpuW958u3uNxypcsCJD3o4qphgqSMVpe33bJ1bZaeL/h8WT9KNBiIxGsYQco44JbJkjrHTAI3Wt+RNhHyn+nKI9wCaeYPCY7ZipVpmL3AgMBAAECgYBn/BxWx1hIQjMQ5pnuGzGNSk9+HRMQtQoHZqI9FEwn2JtDw9QJtEOxZCa4+svcQQfguIcKCfHqj/NqHMNrglqmmJhKrut+ilUt8rqJCmvRSh8AdG7ZnqzxQYdTrrEEKgO932WqPOI98X2H+2cPzLfIOgxN7FhCDg+lVi4CBdfJ8QJBANosNf2b4f50AgAkstAKX1Hqqsb+k5L5reoF9e6eQufPXIpSrbME3cETyRMMLKX+YfhHpv66fpfg0X4JiHZIpdsCQQCgmmPNWs2nbvHY3Eo3xuYs/KJRIltgYaAd9+CCjpCTbU21afqyGkK7zibHfLADh+m5GOkOZ5IFn5Alhg1NQNgVAkBTX/PeEDVEPWcKUPv4nw4gSvKqi10wHLSGq3J5lwdweQEfZ0s0D5cDEyGTYuKpKNadwBwkWnbIacUFSnVY5phjAkAt4Ix73+F5X77kROFKl52u4if350mU+a5EgUd35AO2qXWWSgTcFZZUkaoQODULfSqtvkjs3Xcf9hm2LlnkZI6VAkEAl8+0+a6Rjz119mxJXy9JWKTbWirhja+ijyndLVEAmxTYjWTuNKbRdTYe59ekRYhmMWkiKzggP+PKjXHCHV6eRQ==
 filter.sysconfig.zmxy.zhimaPublicKey=MIGfMA0GCSqGSIb3DQEBAQUAA4GNADCBiQKBgQCRV1T3v+XqPirsbwvqThyKQLIg+UFKzN3mYgcLsVLm6+PRb5LZZbugmiEMF+Z8/E6d0ILA1Nzen5IYGgyjy33KY1oc2rQopK4W9H+HtaUTi+RS08N5kcmlzhrMU360NTVMIyR0Oqi7MfHJwmUFuFKODo+QB3KkI/jkIGe4iLDnHQIDAQAB</t>
   </si>
   <si>
@@ -6479,8 +6479,8 @@
   <sheetPr/>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
@@ -6606,7 +6606,7 @@
       </c>
       <c r="M4" s="13"/>
     </row>
-    <row r="5" ht="396" spans="1:13">
+    <row r="5" ht="379.5" spans="1:13">
       <c r="A5" s="11">
         <v>2</v>
       </c>

--- a/VersionRecords/Version 5.2.7 170117/版本Bug和特性计划及评审表v5.2.7_马丁组.xlsx
+++ b/VersionRecords/Version 5.2.7 170117/版本Bug和特性计划及评审表v5.2.7_马丁组.xlsx
@@ -296,7 +296,7 @@
     <t>sysconfig.zmxy.gatewayUrl=https://zmopenapi.zmxy.com.cn/openapi.do
 sysconfig.zmxy.appId=1001637
 sysconfig.zmxy.privateKey=MIICdgIBADANBgkqhkiG9w0BAQEFAASCAmAwggJcAgEAAoGBAIjfNWUXqCNtlaBFpv4KrBTVQb4btX9Gi+UPuz7AMvwbSXmtIxV2awkz4Rg0Q3PtTkuAUpuW958u3uNxypcsCJD3o4qphgqSMVpe33bJ1bZaeL/h8WT9KNBiIxGsYQco44JbJkjrHTAI3Wt+RNhHyn+nKI9wCaeYPCY7ZipVpmL3AgMBAAECgYBn/BxWx1hIQjMQ5pnuGzGNSk9+HRMQtQoHZqI9FEwn2JtDw9QJtEOxZCa4+svcQQfguIcKCfHqj/NqHMNrglqmmJhKrut+ilUt8rqJCmvRSh8AdG7ZnqzxQYdTrrEEKgO932WqPOI98X2H+2cPzLfIOgxN7FhCDg+lVi4CBdfJ8QJBANosNf2b4f50AgAkstAKX1Hqqsb+k5L5reoF9e6eQufPXIpSrbME3cETyRMMLKX+YfhHpv66fpfg0X4JiHZIpdsCQQCgmmPNWs2nbvHY3Eo3xuYs/KJRIltgYaAd9+CCjpCTbU21afqyGkK7zibHfLADh+m5GOkOZ5IFn5Alhg1NQNgVAkBTX/PeEDVEPWcKUPv4nw4gSvKqi10wHLSGq3J5lwdweQEfZ0s0D5cDEyGTYuKpKNadwBwkWnbIacUFSnVY5phjAkAt4Ix73+F5X77kROFKl52u4if350mU+a5EgUd35AO2qXWWSgTcFZZUkaoQODULfSqtvkjs3Xcf9hm2LlnkZI6VAkEAl8+0+a6Rjz119mxJXy9JWKTbWirhja+ijyndLVEAmxTYjWTuNKbRdTYe59ekRYhmMWkiKzggP+PKjXHCHV6eRQ==
-filter.sysconfig.zmxy.zhimaPublicKey=MIGfMA0GCSqGSIb3DQEBAQUAA4GNADCBiQKBgQCRV1T3v+XqPirsbwvqThyKQLIg+UFKzN3mYgcLsVLm6+PRb5LZZbugmiEMF+Z8/E6d0ILA1Nzen5IYGgyjy33KY1oc2rQopK4W9H+HtaUTi+RS08N5kcmlzhrMU360NTVMIyR0Oqi7MfHJwmUFuFKODo+QB3KkI/jkIGe4iLDnHQIDAQAB</t>
+sysconfig.zmxy.zhimaPublicKey=MIGfMA0GCSqGSIb3DQEBAQUAA4GNADCBiQKBgQCRV1T3v+XqPirsbwvqThyKQLIg+UFKzN3mYgcLsVLm6+PRb5LZZbugmiEMF+Z8/E6d0ILA1Nzen5IYGgyjy33KY1oc2rQopK4W9H+HtaUTi+RS08N5kcmlzhrMU360NTVMIyR0Oqi7MfHJwmUFuFKODo+QB3KkI/jkIGe4iLDnHQIDAQAB</t>
   </si>
   <si>
     <t>芝麻反欺诈接口</t>
